--- a/table/model.avg/in.situ.TOU_sp_model.avg.xlsx
+++ b/table/model.avg/in.situ.TOU_sp_model.avg.xlsx
@@ -374,22 +374,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>CruiseOR1-1242</t>
+          <t>Depth</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Depth</t>
+          <t>DRM</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>DRM</t>
+          <t>MonthOctober</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>CruiseOR1-1242:Depth</t>
+          <t>Depth:MonthOctober</t>
         </is>
       </c>
     </row>
@@ -403,16 +403,16 @@
         <v>13.07938002051043</v>
       </c>
       <c r="C2">
-        <v>4.306392491261504</v>
+        <v>-2.560484844447173</v>
       </c>
       <c r="D2">
-        <v>-2.560484844447173</v>
+        <v>-2.044527861403934</v>
       </c>
       <c r="E2">
-        <v>-2.044527861403934</v>
+        <v>4.306392491261503</v>
       </c>
       <c r="F2">
-        <v>-3.100740757919009</v>
+        <v>-3.10074075791901</v>
       </c>
     </row>
     <row r="3">
@@ -425,16 +425,16 @@
         <v>13.07938002051043</v>
       </c>
       <c r="C3">
-        <v>4.479869305273347</v>
+        <v>-2.560484844447173</v>
       </c>
       <c r="D3">
-        <v>-2.560484844447173</v>
+        <v>-2.382409285070976</v>
       </c>
       <c r="E3">
-        <v>-2.382409285070976</v>
+        <v>4.479869305273346</v>
       </c>
       <c r="F3">
-        <v>-4.275583647752</v>
+        <v>-4.275583647752001</v>
       </c>
     </row>
   </sheetData>
@@ -529,7 +529,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>134</t>
         </is>
       </c>
       <c r="B4">
@@ -551,7 +551,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B5">
@@ -608,7 +608,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Cruise</t>
+          <t>Month</t>
         </is>
       </c>
       <c r="B3">
@@ -628,7 +628,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cruise:Depth</t>
+          <t>Depth:Month</t>
         </is>
       </c>
       <c r="B5">
@@ -696,7 +696,7 @@
         <v>1.42503848478137</v>
       </c>
       <c r="E2">
-        <v>9.178264418955022</v>
+        <v>9.178264418955026</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -705,80 +705,80 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CruiseOR1-1242</t>
+          <t>Depth</t>
         </is>
       </c>
       <c r="B3">
-        <v>4.306392491261504</v>
+        <v>-2.560484844447173</v>
       </c>
       <c r="C3">
-        <v>1.912092358164769</v>
+        <v>1.766245296771825</v>
       </c>
       <c r="D3">
-        <v>1.979935665124449</v>
+        <v>1.810136525551725</v>
       </c>
       <c r="E3">
-        <v>2.17501637407538</v>
+        <v>1.414525815209846</v>
       </c>
       <c r="F3">
-        <v>0.02962889</v>
+        <v>0.15720757</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Depth</t>
+          <t>DRM</t>
         </is>
       </c>
       <c r="B4">
-        <v>-2.560484844447173</v>
+        <v>-2.044527861403934</v>
       </c>
       <c r="C4">
-        <v>1.766245296771825</v>
+        <v>1.233957613440959</v>
       </c>
       <c r="D4">
-        <v>1.810136525551725</v>
+        <v>1.261481204227144</v>
       </c>
       <c r="E4">
-        <v>1.414525815209847</v>
+        <v>1.620735889328235</v>
       </c>
       <c r="F4">
-        <v>0.15720757</v>
+        <v>0.10507429</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DRM</t>
+          <t>MonthOctober</t>
         </is>
       </c>
       <c r="B5">
-        <v>-2.044527861403934</v>
+        <v>4.306392491261503</v>
       </c>
       <c r="C5">
-        <v>1.233957613440959</v>
+        <v>1.912092358164769</v>
       </c>
       <c r="D5">
-        <v>1.261481204227144</v>
+        <v>1.979935665124449</v>
       </c>
       <c r="E5">
-        <v>1.620735889328235</v>
+        <v>2.175016374075379</v>
       </c>
       <c r="F5">
-        <v>0.10507429</v>
+        <v>0.02962889</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CruiseOR1-1242:Depth</t>
+          <t>Depth:MonthOctober</t>
         </is>
       </c>
       <c r="B6">
-        <v>-3.100740757919009</v>
+        <v>-3.10074075791901</v>
       </c>
       <c r="C6">
-        <v>2.553950871533307</v>
+        <v>2.553950871533308</v>
       </c>
       <c r="D6">
         <v>2.600689420443092</v>
@@ -851,7 +851,7 @@
         <v>1.42503848478137</v>
       </c>
       <c r="E2">
-        <v>9.178264418955022</v>
+        <v>9.178264418955026</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -860,80 +860,80 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CruiseOR1-1242</t>
+          <t>Depth</t>
         </is>
       </c>
       <c r="B3">
-        <v>4.479869305273347</v>
+        <v>-2.560484844447173</v>
       </c>
       <c r="C3">
-        <v>1.739604649598564</v>
+        <v>1.766245296771825</v>
       </c>
       <c r="D3">
-        <v>1.816840439867938</v>
+        <v>1.810136525551725</v>
       </c>
       <c r="E3">
-        <v>2.465747242833817</v>
+        <v>1.414525815209846</v>
       </c>
       <c r="F3">
-        <v>0.01367278</v>
+        <v>0.15720757</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Depth</t>
+          <t>DRM</t>
         </is>
       </c>
       <c r="B4">
-        <v>-2.560484844447173</v>
+        <v>-2.382409285070976</v>
       </c>
       <c r="C4">
-        <v>1.766245296771825</v>
+        <v>0.9845379460922943</v>
       </c>
       <c r="D4">
-        <v>1.810136525551725</v>
+        <v>1.024377431066279</v>
       </c>
       <c r="E4">
-        <v>1.414525815209847</v>
+        <v>2.325714343970969</v>
       </c>
       <c r="F4">
-        <v>0.15720757</v>
+        <v>0.02003379</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DRM</t>
+          <t>MonthOctober</t>
         </is>
       </c>
       <c r="B5">
-        <v>-2.382409285070976</v>
+        <v>4.479869305273346</v>
       </c>
       <c r="C5">
-        <v>0.9845379460922938</v>
+        <v>1.739604649598564</v>
       </c>
       <c r="D5">
-        <v>1.024377431066278</v>
+        <v>1.816840439867938</v>
       </c>
       <c r="E5">
-        <v>2.325714343970969</v>
+        <v>2.465747242833817</v>
       </c>
       <c r="F5">
-        <v>0.02003379</v>
+        <v>0.01367278</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CruiseOR1-1242:Depth</t>
+          <t>Depth:MonthOctober</t>
         </is>
       </c>
       <c r="B6">
-        <v>-4.275583647752</v>
+        <v>-4.275583647752001</v>
       </c>
       <c r="C6">
-        <v>1.992713062694688</v>
+        <v>1.992713062694689</v>
       </c>
       <c r="D6">
         <v>2.074393487575275</v>
